--- a/home_work4.xlsx
+++ b/home_work4.xlsx
@@ -678,300 +678,300 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>A_1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>_1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A_1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A_2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>_2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A_2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>A_3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>_3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>A_4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>_4</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>A_4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>A_5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>_5</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>A_5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>A_6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>_6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>A_6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>A_7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>_7</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>A_7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>A_8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>_8</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>A_8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>A_9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>_9</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>A_9</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>A_10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>_10</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>A_10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>A_11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>_11</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>A_11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>A_12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>_12</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>A_12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>A_13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>_13</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>A_13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>A_14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>_14</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>A_14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>A_15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>_15</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>A_15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>A_16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>_16</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>A_16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>A_17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>_17</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>A_17</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>A_18</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>_18</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>A_18</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>A_19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>_19</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>A_19</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>A_20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>_20</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>A_20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>A_21</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>_21</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>A_21</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>A_22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>_22</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>A_22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>A_23</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>_23</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>A_23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>A_24</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>_24</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>A_24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>A_25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>_25</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>A_25</t>
         </is>
       </c>
     </row>

--- a/home_work4.xlsx
+++ b/home_work4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
